--- a/benchmarking/mhc_ligands_benchmarking.xlsx
+++ b/benchmarking/mhc_ligands_benchmarking.xlsx
@@ -160,12 +160,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,48 +186,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -232,16 +236,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>66.9721705913544</v>
+        <v>38.07</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.24</v>
+        <v>0.187</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>67.212</v>
+        <v>38.257</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>8</v>
@@ -251,186 +255,186 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>55.0901165008545</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.00350117683410644</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>13.75</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>68.844</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>1.30349087715149</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>6.657</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>7.961</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>98.304</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.245501756668091</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>4.656</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>4.901</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>1.495</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>2.35403919219971</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>0.532</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>2.886</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>1011.443</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>1011.443</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>3651.484</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>3651.484</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>2631.979</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>2631.979</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="0" t="n">
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>5197.92</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>5197.92</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>100</v>
       </c>
     </row>
